--- a/election_votar_data/LOHAGARA/KALAUZAN/152571/152571_com_1217_female_without_photo_69_2025-11-24.xlsx
+++ b/election_votar_data/LOHAGARA/KALAUZAN/152571/152571_com_1217_female_without_photo_69_2025-11-24.xlsx
@@ -450,7 +450,7 @@
     <col width="21.5" customWidth="1" min="3" max="3"/>
     <col width="45" customWidth="1" min="4" max="4"/>
     <col width="36.5" customWidth="1" min="5" max="5"/>
-    <col width="41" customWidth="1" min="6" max="6"/>
+    <col width="24" customWidth="1" min="6" max="6"/>
     <col width="16" customWidth="1" min="7" max="7"/>
     <col width="50" customWidth="1" min="8" max="8"/>
   </cols>
@@ -37737,7 +37737,7 @@
       </c>
       <c r="F888" s="3" t="inlineStr">
         <is>
-          <t>বেকার জন্ম তারিখ: ০১/০৩/১৯৮৭</t>
+          <t>বেকার</t>
         </is>
       </c>
       <c r="G888" s="3" t="inlineStr">

--- a/election_votar_data/LOHAGARA/KALAUZAN/152571/152571_com_1217_female_without_photo_69_2025-11-24.xlsx
+++ b/election_votar_data/LOHAGARA/KALAUZAN/152571/152571_com_1217_female_without_photo_69_2025-11-24.xlsx
@@ -450,7 +450,7 @@
     <col width="21.5" customWidth="1" min="3" max="3"/>
     <col width="45" customWidth="1" min="4" max="4"/>
     <col width="36.5" customWidth="1" min="5" max="5"/>
-    <col width="24" customWidth="1" min="6" max="6"/>
+    <col width="41" customWidth="1" min="6" max="6"/>
     <col width="16" customWidth="1" min="7" max="7"/>
     <col width="50" customWidth="1" min="8" max="8"/>
   </cols>
@@ -37737,7 +37737,7 @@
       </c>
       <c r="F888" s="3" t="inlineStr">
         <is>
-          <t>বেকার</t>
+          <t>বেকার জন্ম তারিখ: ০১/০৩/১৯৮৭</t>
         </is>
       </c>
       <c r="G888" s="3" t="inlineStr">
